--- a/gantt-chart TIMELINE per 28 February 2026.xlsx
+++ b/gantt-chart TIMELINE per 28 February 2026.xlsx
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="255">
   <si>
     <t xml:space="preserve">Project Start Date </t>
   </si>
@@ -2286,9 +2286,6 @@
     <t>UI penarikan data dari API dan insert data Warehous(PIC: BUDI) sudah selesai</t>
   </si>
   <si>
-    <t xml:space="preserve">Update status penarikan data BC </t>
-  </si>
-  <si>
     <t>FORM BC - PO</t>
   </si>
   <si>
@@ -2332,6 +2329,15 @@
   </si>
   <si>
     <t>FORM BC - UPDATE DOK MASUK GRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update progress penarikan data BC </t>
+  </si>
+  <si>
+    <t>Baim/Jali/Star</t>
+  </si>
+  <si>
+    <t>Budi/Jali/Star</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2666,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2713,6 +2719,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor rgb="FFD6F4D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2904,7 +2928,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3234,13 +3258,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3254,6 +3311,16 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3280,16 +3347,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
@@ -3302,6 +3359,16 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3328,16 +3395,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
@@ -3350,6 +3407,16 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3376,6 +3443,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3400,6 +3481,16 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
@@ -3422,6 +3513,20 @@
           <color rgb="FFC00000"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3698,198 +3803,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3898,246 +3811,6 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4950,8 +4623,8 @@
   <dimension ref="A1:BN129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6774,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" ref="I20" si="16">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
@@ -7104,7 +6777,7 @@
         <f t="shared" si="14"/>
         <v>1.16</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="118" t="s">
         <v>233</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -7280,7 +6953,7 @@
         <f t="shared" si="14"/>
         <v>1.18</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -8003,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="91">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" si="18"/>
@@ -8076,7 +7749,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6">
@@ -8179,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" si="18"/>
@@ -8252,7 +7925,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6">
@@ -8340,7 +8013,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6">
@@ -8419,93 +8092,93 @@
       <c r="BM38" s="4"/>
       <c r="BN38" s="4"/>
     </row>
-    <row r="39" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A39" s="4" t="str">
+    <row r="39" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A39" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.31</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="121" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6">
+      <c r="D39" s="122"/>
+      <c r="E39" s="123">
         <f t="shared" ref="E39" si="30">F37+1</f>
         <v>46079</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="124">
         <f t="shared" ref="F39" si="31">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v>46083</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="125">
         <v>5</v>
       </c>
-      <c r="H39" s="91">
+      <c r="H39" s="128">
         <v>0</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="125">
         <f t="shared" ref="I39" si="32">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v>3</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-      <c r="BF39" s="4"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="4"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
-      <c r="BL39" s="4"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="4"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119"/>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="119"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="119"/>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
+      <c r="AH39" s="119"/>
+      <c r="AI39" s="119"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="119"/>
+      <c r="AL39" s="119"/>
+      <c r="AM39" s="119"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
+      <c r="AP39" s="119"/>
+      <c r="AQ39" s="119"/>
+      <c r="AR39" s="119"/>
+      <c r="AS39" s="119"/>
+      <c r="AT39" s="119"/>
+      <c r="AU39" s="119"/>
+      <c r="AV39" s="119"/>
+      <c r="AW39" s="119"/>
+      <c r="AX39" s="119"/>
+      <c r="AY39" s="119"/>
+      <c r="AZ39" s="119"/>
+      <c r="BA39" s="119"/>
+      <c r="BB39" s="119"/>
+      <c r="BC39" s="119"/>
+      <c r="BD39" s="119"/>
+      <c r="BE39" s="119"/>
+      <c r="BF39" s="119"/>
+      <c r="BG39" s="119"/>
+      <c r="BH39" s="119"/>
+      <c r="BI39" s="119"/>
+      <c r="BJ39" s="119"/>
+      <c r="BK39" s="119"/>
+      <c r="BL39" s="119"/>
+      <c r="BM39" s="119"/>
+      <c r="BN39" s="119"/>
     </row>
     <row r="40" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A40" s="4" t="str">
@@ -8516,7 +8189,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6">
@@ -8619,7 +8292,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" ref="I41:I73" si="36">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
@@ -8683,93 +8356,93 @@
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
     </row>
-    <row r="42" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A42" s="4" t="str">
+    <row r="42" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A42" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.34</v>
       </c>
-      <c r="B42" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6">
+      <c r="C42" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123">
         <f>F39+1</f>
         <v>46084</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="124">
         <f t="shared" ref="F42" si="37">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v>46085</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="125">
         <v>2</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="126">
         <v>0</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="125">
         <f t="shared" ref="I42" si="38">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
         <v>2</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="4"/>
-      <c r="BD42" s="4"/>
-      <c r="BE42" s="4"/>
-      <c r="BF42" s="4"/>
-      <c r="BG42" s="4"/>
-      <c r="BH42" s="4"/>
-      <c r="BI42" s="4"/>
-      <c r="BJ42" s="4"/>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="119"/>
+      <c r="W42" s="119"/>
+      <c r="X42" s="119"/>
+      <c r="Y42" s="119"/>
+      <c r="Z42" s="119"/>
+      <c r="AA42" s="119"/>
+      <c r="AB42" s="119"/>
+      <c r="AC42" s="119"/>
+      <c r="AD42" s="119"/>
+      <c r="AE42" s="119"/>
+      <c r="AF42" s="119"/>
+      <c r="AG42" s="119"/>
+      <c r="AH42" s="119"/>
+      <c r="AI42" s="119"/>
+      <c r="AJ42" s="119"/>
+      <c r="AK42" s="119"/>
+      <c r="AL42" s="119"/>
+      <c r="AM42" s="119"/>
+      <c r="AN42" s="119"/>
+      <c r="AO42" s="119"/>
+      <c r="AP42" s="119"/>
+      <c r="AQ42" s="119"/>
+      <c r="AR42" s="119"/>
+      <c r="AS42" s="119"/>
+      <c r="AT42" s="119"/>
+      <c r="AU42" s="119"/>
+      <c r="AV42" s="119"/>
+      <c r="AW42" s="119"/>
+      <c r="AX42" s="119"/>
+      <c r="AY42" s="119"/>
+      <c r="AZ42" s="119"/>
+      <c r="BA42" s="119"/>
+      <c r="BB42" s="119"/>
+      <c r="BC42" s="119"/>
+      <c r="BD42" s="119"/>
+      <c r="BE42" s="119"/>
+      <c r="BF42" s="119"/>
+      <c r="BG42" s="119"/>
+      <c r="BH42" s="119"/>
+      <c r="BI42" s="119"/>
+      <c r="BJ42" s="119"/>
+      <c r="BK42" s="119"/>
+      <c r="BL42" s="119"/>
+      <c r="BM42" s="119"/>
+      <c r="BN42" s="119"/>
     </row>
     <row r="43" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A43" s="4" t="str">
@@ -8780,7 +8453,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6">
@@ -8868,7 +8541,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6">
@@ -8947,93 +8620,93 @@
       <c r="BM44" s="4"/>
       <c r="BN44" s="4"/>
     </row>
-    <row r="45" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A45" s="4" t="str">
+    <row r="45" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A45" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.37</v>
       </c>
-      <c r="B45" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6">
+      <c r="B45" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="122"/>
+      <c r="E45" s="123">
         <f>F43+2</f>
         <v>46086</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="124">
         <f t="shared" ref="F45" si="39">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
         <v>46087</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="125">
         <v>2</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="126">
         <v>0</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="125">
         <f t="shared" ref="I45" si="40">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
         <v>2</v>
       </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
-      <c r="AS45" s="4"/>
-      <c r="AT45" s="4"/>
-      <c r="AU45" s="4"/>
-      <c r="AV45" s="4"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="4"/>
-      <c r="AY45" s="4"/>
-      <c r="AZ45" s="4"/>
-      <c r="BA45" s="4"/>
-      <c r="BB45" s="4"/>
-      <c r="BC45" s="4"/>
-      <c r="BD45" s="4"/>
-      <c r="BE45" s="4"/>
-      <c r="BF45" s="4"/>
-      <c r="BG45" s="4"/>
-      <c r="BH45" s="4"/>
-      <c r="BI45" s="4"/>
-      <c r="BJ45" s="4"/>
-      <c r="BK45" s="4"/>
-      <c r="BL45" s="4"/>
-      <c r="BM45" s="4"/>
-      <c r="BN45" s="4"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="119"/>
+      <c r="T45" s="119"/>
+      <c r="U45" s="119"/>
+      <c r="V45" s="119"/>
+      <c r="W45" s="119"/>
+      <c r="X45" s="119"/>
+      <c r="Y45" s="119"/>
+      <c r="Z45" s="119"/>
+      <c r="AA45" s="119"/>
+      <c r="AB45" s="119"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="119"/>
+      <c r="AE45" s="119"/>
+      <c r="AF45" s="119"/>
+      <c r="AG45" s="119"/>
+      <c r="AH45" s="119"/>
+      <c r="AI45" s="119"/>
+      <c r="AJ45" s="119"/>
+      <c r="AK45" s="119"/>
+      <c r="AL45" s="119"/>
+      <c r="AM45" s="119"/>
+      <c r="AN45" s="119"/>
+      <c r="AO45" s="119"/>
+      <c r="AP45" s="119"/>
+      <c r="AQ45" s="119"/>
+      <c r="AR45" s="119"/>
+      <c r="AS45" s="119"/>
+      <c r="AT45" s="119"/>
+      <c r="AU45" s="119"/>
+      <c r="AV45" s="119"/>
+      <c r="AW45" s="119"/>
+      <c r="AX45" s="119"/>
+      <c r="AY45" s="119"/>
+      <c r="AZ45" s="119"/>
+      <c r="BA45" s="119"/>
+      <c r="BB45" s="119"/>
+      <c r="BC45" s="119"/>
+      <c r="BD45" s="119"/>
+      <c r="BE45" s="119"/>
+      <c r="BF45" s="119"/>
+      <c r="BG45" s="119"/>
+      <c r="BH45" s="119"/>
+      <c r="BI45" s="119"/>
+      <c r="BJ45" s="119"/>
+      <c r="BK45" s="119"/>
+      <c r="BL45" s="119"/>
+      <c r="BM45" s="119"/>
+      <c r="BN45" s="119"/>
     </row>
     <row r="46" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A46" s="4" t="str">
@@ -9044,7 +8717,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6">
@@ -9132,7 +8805,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6">
@@ -9220,7 +8893,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6">
@@ -9308,7 +8981,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6">
@@ -9387,93 +9060,93 @@
       <c r="BM49" s="4"/>
       <c r="BN49" s="4"/>
     </row>
-    <row r="50" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A50" s="4" t="str">
+    <row r="50" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A50" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.42</v>
       </c>
-      <c r="B50" s="94" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6">
+      <c r="B50" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="122"/>
+      <c r="E50" s="123">
         <f>F47+2</f>
         <v>46088</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="124">
         <f t="shared" ref="F50" si="41">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
         <v>46091</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="125">
         <v>4</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="126">
         <v>0</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="125">
         <f t="shared" ref="I50" si="42">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
         <v>2</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
-      <c r="AN50" s="4"/>
-      <c r="AO50" s="4"/>
-      <c r="AP50" s="4"/>
-      <c r="AQ50" s="4"/>
-      <c r="AR50" s="4"/>
-      <c r="AS50" s="4"/>
-      <c r="AT50" s="4"/>
-      <c r="AU50" s="4"/>
-      <c r="AV50" s="4"/>
-      <c r="AW50" s="4"/>
-      <c r="AX50" s="4"/>
-      <c r="AY50" s="4"/>
-      <c r="AZ50" s="4"/>
-      <c r="BA50" s="4"/>
-      <c r="BB50" s="4"/>
-      <c r="BC50" s="4"/>
-      <c r="BD50" s="4"/>
-      <c r="BE50" s="4"/>
-      <c r="BF50" s="4"/>
-      <c r="BG50" s="4"/>
-      <c r="BH50" s="4"/>
-      <c r="BI50" s="4"/>
-      <c r="BJ50" s="4"/>
-      <c r="BK50" s="4"/>
-      <c r="BL50" s="4"/>
-      <c r="BM50" s="4"/>
-      <c r="BN50" s="4"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="119"/>
+      <c r="S50" s="119"/>
+      <c r="T50" s="119"/>
+      <c r="U50" s="119"/>
+      <c r="V50" s="119"/>
+      <c r="W50" s="119"/>
+      <c r="X50" s="119"/>
+      <c r="Y50" s="119"/>
+      <c r="Z50" s="119"/>
+      <c r="AA50" s="119"/>
+      <c r="AB50" s="119"/>
+      <c r="AC50" s="119"/>
+      <c r="AD50" s="119"/>
+      <c r="AE50" s="119"/>
+      <c r="AF50" s="119"/>
+      <c r="AG50" s="119"/>
+      <c r="AH50" s="119"/>
+      <c r="AI50" s="119"/>
+      <c r="AJ50" s="119"/>
+      <c r="AK50" s="119"/>
+      <c r="AL50" s="119"/>
+      <c r="AM50" s="119"/>
+      <c r="AN50" s="119"/>
+      <c r="AO50" s="119"/>
+      <c r="AP50" s="119"/>
+      <c r="AQ50" s="119"/>
+      <c r="AR50" s="119"/>
+      <c r="AS50" s="119"/>
+      <c r="AT50" s="119"/>
+      <c r="AU50" s="119"/>
+      <c r="AV50" s="119"/>
+      <c r="AW50" s="119"/>
+      <c r="AX50" s="119"/>
+      <c r="AY50" s="119"/>
+      <c r="AZ50" s="119"/>
+      <c r="BA50" s="119"/>
+      <c r="BB50" s="119"/>
+      <c r="BC50" s="119"/>
+      <c r="BD50" s="119"/>
+      <c r="BE50" s="119"/>
+      <c r="BF50" s="119"/>
+      <c r="BG50" s="119"/>
+      <c r="BH50" s="119"/>
+      <c r="BI50" s="119"/>
+      <c r="BJ50" s="119"/>
+      <c r="BK50" s="119"/>
+      <c r="BL50" s="119"/>
+      <c r="BM50" s="119"/>
+      <c r="BN50" s="119"/>
     </row>
     <row r="51" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A51" s="4" t="str">
@@ -9484,11 +9157,11 @@
         <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6">
-        <f>F48+1</f>
+        <f t="shared" ref="E51:E60" si="43">F48+1</f>
         <v>46091</v>
       </c>
       <c r="F51" s="7">
@@ -9572,11 +9245,11 @@
         <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6">
-        <f>F49+1</f>
+        <f t="shared" si="43"/>
         <v>46091</v>
       </c>
       <c r="F52" s="7">
@@ -9651,93 +9324,93 @@
       <c r="BM52" s="4"/>
       <c r="BN52" s="4"/>
     </row>
-    <row r="53" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A53" s="4" t="str">
+    <row r="53" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A53" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.45</v>
       </c>
-      <c r="B53" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6">
-        <f>F50+1</f>
+      <c r="B53" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="122"/>
+      <c r="E53" s="123">
+        <f t="shared" si="43"/>
         <v>46092</v>
       </c>
-      <c r="F53" s="7">
-        <f t="shared" ref="F53" si="43">IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
+      <c r="F53" s="124">
+        <f t="shared" ref="F53" si="44">IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
         <v>46093</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="125">
         <v>2</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="126">
         <v>0</v>
       </c>
-      <c r="I53" s="10">
-        <f t="shared" ref="I53" si="44">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+      <c r="I53" s="125">
+        <f t="shared" ref="I53" si="45">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
         <v>2</v>
       </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="4"/>
-      <c r="AT53" s="4"/>
-      <c r="AU53" s="4"/>
-      <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="4"/>
-      <c r="AY53" s="4"/>
-      <c r="AZ53" s="4"/>
-      <c r="BA53" s="4"/>
-      <c r="BB53" s="4"/>
-      <c r="BC53" s="4"/>
-      <c r="BD53" s="4"/>
-      <c r="BE53" s="4"/>
-      <c r="BF53" s="4"/>
-      <c r="BG53" s="4"/>
-      <c r="BH53" s="4"/>
-      <c r="BI53" s="4"/>
-      <c r="BJ53" s="4"/>
-      <c r="BK53" s="4"/>
-      <c r="BL53" s="4"/>
-      <c r="BM53" s="4"/>
-      <c r="BN53" s="4"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="119"/>
+      <c r="T53" s="119"/>
+      <c r="U53" s="119"/>
+      <c r="V53" s="119"/>
+      <c r="W53" s="119"/>
+      <c r="X53" s="119"/>
+      <c r="Y53" s="119"/>
+      <c r="Z53" s="119"/>
+      <c r="AA53" s="119"/>
+      <c r="AB53" s="119"/>
+      <c r="AC53" s="119"/>
+      <c r="AD53" s="119"/>
+      <c r="AE53" s="119"/>
+      <c r="AF53" s="119"/>
+      <c r="AG53" s="119"/>
+      <c r="AH53" s="119"/>
+      <c r="AI53" s="119"/>
+      <c r="AJ53" s="119"/>
+      <c r="AK53" s="119"/>
+      <c r="AL53" s="119"/>
+      <c r="AM53" s="119"/>
+      <c r="AN53" s="119"/>
+      <c r="AO53" s="119"/>
+      <c r="AP53" s="119"/>
+      <c r="AQ53" s="119"/>
+      <c r="AR53" s="119"/>
+      <c r="AS53" s="119"/>
+      <c r="AT53" s="119"/>
+      <c r="AU53" s="119"/>
+      <c r="AV53" s="119"/>
+      <c r="AW53" s="119"/>
+      <c r="AX53" s="119"/>
+      <c r="AY53" s="119"/>
+      <c r="AZ53" s="119"/>
+      <c r="BA53" s="119"/>
+      <c r="BB53" s="119"/>
+      <c r="BC53" s="119"/>
+      <c r="BD53" s="119"/>
+      <c r="BE53" s="119"/>
+      <c r="BF53" s="119"/>
+      <c r="BG53" s="119"/>
+      <c r="BH53" s="119"/>
+      <c r="BI53" s="119"/>
+      <c r="BJ53" s="119"/>
+      <c r="BK53" s="119"/>
+      <c r="BL53" s="119"/>
+      <c r="BM53" s="119"/>
+      <c r="BN53" s="119"/>
     </row>
     <row r="54" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A54" s="4" t="str">
@@ -9748,11 +9421,11 @@
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6">
-        <f>F51+1</f>
+        <f t="shared" si="43"/>
         <v>46093</v>
       </c>
       <c r="F54" s="7">
@@ -9836,11 +9509,11 @@
         <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6">
-        <f>F52+1</f>
+        <f t="shared" si="43"/>
         <v>46093</v>
       </c>
       <c r="F55" s="7">
@@ -9915,93 +9588,93 @@
       <c r="BM55" s="4"/>
       <c r="BN55" s="4"/>
     </row>
-    <row r="56" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A56" s="4" t="str">
+    <row r="56" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A56" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.48</v>
       </c>
-      <c r="B56" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6">
-        <f>F53+1</f>
+      <c r="B56" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="122"/>
+      <c r="E56" s="123">
+        <f t="shared" si="43"/>
         <v>46094</v>
       </c>
-      <c r="F56" s="7">
-        <f t="shared" ref="F56" si="45">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
+      <c r="F56" s="124">
+        <f t="shared" ref="F56" si="46">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
         <v>46097</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="125">
         <v>4</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="126">
         <v>0</v>
       </c>
-      <c r="I56" s="10">
-        <f t="shared" ref="I56" si="46">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+      <c r="I56" s="125">
+        <f t="shared" ref="I56" si="47">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
         <v>2</v>
       </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="4"/>
-      <c r="AM56" s="4"/>
-      <c r="AN56" s="4"/>
-      <c r="AO56" s="4"/>
-      <c r="AP56" s="4"/>
-      <c r="AQ56" s="4"/>
-      <c r="AR56" s="4"/>
-      <c r="AS56" s="4"/>
-      <c r="AT56" s="4"/>
-      <c r="AU56" s="4"/>
-      <c r="AV56" s="4"/>
-      <c r="AW56" s="4"/>
-      <c r="AX56" s="4"/>
-      <c r="AY56" s="4"/>
-      <c r="AZ56" s="4"/>
-      <c r="BA56" s="4"/>
-      <c r="BB56" s="4"/>
-      <c r="BC56" s="4"/>
-      <c r="BD56" s="4"/>
-      <c r="BE56" s="4"/>
-      <c r="BF56" s="4"/>
-      <c r="BG56" s="4"/>
-      <c r="BH56" s="4"/>
-      <c r="BI56" s="4"/>
-      <c r="BJ56" s="4"/>
-      <c r="BK56" s="4"/>
-      <c r="BL56" s="4"/>
-      <c r="BM56" s="4"/>
-      <c r="BN56" s="4"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="119"/>
+      <c r="T56" s="119"/>
+      <c r="U56" s="119"/>
+      <c r="V56" s="119"/>
+      <c r="W56" s="119"/>
+      <c r="X56" s="119"/>
+      <c r="Y56" s="119"/>
+      <c r="Z56" s="119"/>
+      <c r="AA56" s="119"/>
+      <c r="AB56" s="119"/>
+      <c r="AC56" s="119"/>
+      <c r="AD56" s="119"/>
+      <c r="AE56" s="119"/>
+      <c r="AF56" s="119"/>
+      <c r="AG56" s="119"/>
+      <c r="AH56" s="119"/>
+      <c r="AI56" s="119"/>
+      <c r="AJ56" s="119"/>
+      <c r="AK56" s="119"/>
+      <c r="AL56" s="119"/>
+      <c r="AM56" s="119"/>
+      <c r="AN56" s="119"/>
+      <c r="AO56" s="119"/>
+      <c r="AP56" s="119"/>
+      <c r="AQ56" s="119"/>
+      <c r="AR56" s="119"/>
+      <c r="AS56" s="119"/>
+      <c r="AT56" s="119"/>
+      <c r="AU56" s="119"/>
+      <c r="AV56" s="119"/>
+      <c r="AW56" s="119"/>
+      <c r="AX56" s="119"/>
+      <c r="AY56" s="119"/>
+      <c r="AZ56" s="119"/>
+      <c r="BA56" s="119"/>
+      <c r="BB56" s="119"/>
+      <c r="BC56" s="119"/>
+      <c r="BD56" s="119"/>
+      <c r="BE56" s="119"/>
+      <c r="BF56" s="119"/>
+      <c r="BG56" s="119"/>
+      <c r="BH56" s="119"/>
+      <c r="BI56" s="119"/>
+      <c r="BJ56" s="119"/>
+      <c r="BK56" s="119"/>
+      <c r="BL56" s="119"/>
+      <c r="BM56" s="119"/>
+      <c r="BN56" s="119"/>
     </row>
     <row r="57" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A57" s="4" t="str">
@@ -10012,11 +9685,11 @@
         <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6">
-        <f>F54+1</f>
+        <f t="shared" si="43"/>
         <v>46095</v>
       </c>
       <c r="F57" s="7">
@@ -10100,11 +9773,11 @@
         <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6">
-        <f>F55+1</f>
+        <f t="shared" si="43"/>
         <v>46095</v>
       </c>
       <c r="F58" s="7">
@@ -10179,181 +9852,181 @@
       <c r="BM58" s="4"/>
       <c r="BN58" s="4"/>
     </row>
-    <row r="59" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A59" s="4" t="str">
+    <row r="59" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A59" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.51</v>
       </c>
-      <c r="B59" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6">
-        <f>F56+1</f>
+      <c r="B59" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="122"/>
+      <c r="E59" s="123">
+        <f t="shared" si="43"/>
         <v>46098</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="124">
         <f t="shared" si="35"/>
         <v>46100</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="125">
         <v>3</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="126">
         <v>0</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="125">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-      <c r="BB59" s="4"/>
-      <c r="BC59" s="4"/>
-      <c r="BD59" s="4"/>
-      <c r="BE59" s="4"/>
-      <c r="BF59" s="4"/>
-      <c r="BG59" s="4"/>
-      <c r="BH59" s="4"/>
-      <c r="BI59" s="4"/>
-      <c r="BJ59" s="4"/>
-      <c r="BK59" s="4"/>
-      <c r="BL59" s="4"/>
-      <c r="BM59" s="4"/>
-      <c r="BN59" s="4"/>
-    </row>
-    <row r="60" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A60" s="4" t="str">
+      <c r="J59" s="127"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="119"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="119"/>
+      <c r="S59" s="119"/>
+      <c r="T59" s="119"/>
+      <c r="U59" s="119"/>
+      <c r="V59" s="119"/>
+      <c r="W59" s="119"/>
+      <c r="X59" s="119"/>
+      <c r="Y59" s="119"/>
+      <c r="Z59" s="119"/>
+      <c r="AA59" s="119"/>
+      <c r="AB59" s="119"/>
+      <c r="AC59" s="119"/>
+      <c r="AD59" s="119"/>
+      <c r="AE59" s="119"/>
+      <c r="AF59" s="119"/>
+      <c r="AG59" s="119"/>
+      <c r="AH59" s="119"/>
+      <c r="AI59" s="119"/>
+      <c r="AJ59" s="119"/>
+      <c r="AK59" s="119"/>
+      <c r="AL59" s="119"/>
+      <c r="AM59" s="119"/>
+      <c r="AN59" s="119"/>
+      <c r="AO59" s="119"/>
+      <c r="AP59" s="119"/>
+      <c r="AQ59" s="119"/>
+      <c r="AR59" s="119"/>
+      <c r="AS59" s="119"/>
+      <c r="AT59" s="119"/>
+      <c r="AU59" s="119"/>
+      <c r="AV59" s="119"/>
+      <c r="AW59" s="119"/>
+      <c r="AX59" s="119"/>
+      <c r="AY59" s="119"/>
+      <c r="AZ59" s="119"/>
+      <c r="BA59" s="119"/>
+      <c r="BB59" s="119"/>
+      <c r="BC59" s="119"/>
+      <c r="BD59" s="119"/>
+      <c r="BE59" s="119"/>
+      <c r="BF59" s="119"/>
+      <c r="BG59" s="119"/>
+      <c r="BH59" s="119"/>
+      <c r="BI59" s="119"/>
+      <c r="BJ59" s="119"/>
+      <c r="BK59" s="119"/>
+      <c r="BL59" s="119"/>
+      <c r="BM59" s="119"/>
+      <c r="BN59" s="119"/>
+    </row>
+    <row r="60" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A60" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.52</v>
       </c>
-      <c r="B60" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6">
-        <f>F57+1</f>
+      <c r="B60" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="122"/>
+      <c r="E60" s="123">
+        <f t="shared" si="43"/>
         <v>46099</v>
       </c>
-      <c r="F60" s="7">
-        <f t="shared" ref="F60" si="47">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+      <c r="F60" s="124">
+        <f t="shared" ref="F60" si="48">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
         <v>46100</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="125">
         <v>2</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="126">
         <v>0</v>
       </c>
-      <c r="I60" s="10">
-        <f t="shared" ref="I60" si="48">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+      <c r="I60" s="125">
+        <f t="shared" ref="I60" si="49">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
         <v>2</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-      <c r="AI60" s="4"/>
-      <c r="AJ60" s="4"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="4"/>
-      <c r="AO60" s="4"/>
-      <c r="AP60" s="4"/>
-      <c r="AQ60" s="4"/>
-      <c r="AR60" s="4"/>
-      <c r="AS60" s="4"/>
-      <c r="AT60" s="4"/>
-      <c r="AU60" s="4"/>
-      <c r="AV60" s="4"/>
-      <c r="AW60" s="4"/>
-      <c r="AX60" s="4"/>
-      <c r="AY60" s="4"/>
-      <c r="AZ60" s="4"/>
-      <c r="BA60" s="4"/>
-      <c r="BB60" s="4"/>
-      <c r="BC60" s="4"/>
-      <c r="BD60" s="4"/>
-      <c r="BE60" s="4"/>
-      <c r="BF60" s="4"/>
-      <c r="BG60" s="4"/>
-      <c r="BH60" s="4"/>
-      <c r="BI60" s="4"/>
-      <c r="BJ60" s="4"/>
-      <c r="BK60" s="4"/>
-      <c r="BL60" s="4"/>
-      <c r="BM60" s="4"/>
-      <c r="BN60" s="4"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="119"/>
+      <c r="T60" s="119"/>
+      <c r="U60" s="119"/>
+      <c r="V60" s="119"/>
+      <c r="W60" s="119"/>
+      <c r="X60" s="119"/>
+      <c r="Y60" s="119"/>
+      <c r="Z60" s="119"/>
+      <c r="AA60" s="119"/>
+      <c r="AB60" s="119"/>
+      <c r="AC60" s="119"/>
+      <c r="AD60" s="119"/>
+      <c r="AE60" s="119"/>
+      <c r="AF60" s="119"/>
+      <c r="AG60" s="119"/>
+      <c r="AH60" s="119"/>
+      <c r="AI60" s="119"/>
+      <c r="AJ60" s="119"/>
+      <c r="AK60" s="119"/>
+      <c r="AL60" s="119"/>
+      <c r="AM60" s="119"/>
+      <c r="AN60" s="119"/>
+      <c r="AO60" s="119"/>
+      <c r="AP60" s="119"/>
+      <c r="AQ60" s="119"/>
+      <c r="AR60" s="119"/>
+      <c r="AS60" s="119"/>
+      <c r="AT60" s="119"/>
+      <c r="AU60" s="119"/>
+      <c r="AV60" s="119"/>
+      <c r="AW60" s="119"/>
+      <c r="AX60" s="119"/>
+      <c r="AY60" s="119"/>
+      <c r="AZ60" s="119"/>
+      <c r="BA60" s="119"/>
+      <c r="BB60" s="119"/>
+      <c r="BC60" s="119"/>
+      <c r="BD60" s="119"/>
+      <c r="BE60" s="119"/>
+      <c r="BF60" s="119"/>
+      <c r="BG60" s="119"/>
+      <c r="BH60" s="119"/>
+      <c r="BI60" s="119"/>
+      <c r="BJ60" s="119"/>
+      <c r="BK60" s="119"/>
+      <c r="BL60" s="119"/>
+      <c r="BM60" s="119"/>
+      <c r="BN60" s="119"/>
     </row>
     <row r="61" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A61" s="4" t="str">
@@ -10364,7 +10037,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6">
@@ -10452,7 +10125,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6">
@@ -10531,93 +10204,93 @@
       <c r="BM62" s="4"/>
       <c r="BN62" s="4"/>
     </row>
-    <row r="63" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A63" s="4" t="str">
+    <row r="63" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A63" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.55</v>
       </c>
-      <c r="B63" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6">
+      <c r="B63" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="122"/>
+      <c r="E63" s="123">
         <f>F60+9</f>
         <v>46109</v>
       </c>
-      <c r="F63" s="7">
-        <f t="shared" ref="F63" si="49">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
+      <c r="F63" s="124">
+        <f t="shared" ref="F63" si="50">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
         <v>46112</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="125">
         <v>4</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="126">
         <v>0</v>
       </c>
-      <c r="I63" s="10">
-        <f t="shared" ref="I63" si="50">IF(OR(F63=0,E63=0)," - ",NETWORKDAYS(E63,F63))</f>
+      <c r="I63" s="125">
+        <f t="shared" ref="I63" si="51">IF(OR(F63=0,E63=0)," - ",NETWORKDAYS(E63,F63))</f>
         <v>2</v>
       </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="4"/>
-      <c r="AT63" s="4"/>
-      <c r="AU63" s="4"/>
-      <c r="AV63" s="4"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
-      <c r="BA63" s="4"/>
-      <c r="BB63" s="4"/>
-      <c r="BC63" s="4"/>
-      <c r="BD63" s="4"/>
-      <c r="BE63" s="4"/>
-      <c r="BF63" s="4"/>
-      <c r="BG63" s="4"/>
-      <c r="BH63" s="4"/>
-      <c r="BI63" s="4"/>
-      <c r="BJ63" s="4"/>
-      <c r="BK63" s="4"/>
-      <c r="BL63" s="4"/>
-      <c r="BM63" s="4"/>
-      <c r="BN63" s="4"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="119"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="119"/>
+      <c r="S63" s="119"/>
+      <c r="T63" s="119"/>
+      <c r="U63" s="119"/>
+      <c r="V63" s="119"/>
+      <c r="W63" s="119"/>
+      <c r="X63" s="119"/>
+      <c r="Y63" s="119"/>
+      <c r="Z63" s="119"/>
+      <c r="AA63" s="119"/>
+      <c r="AB63" s="119"/>
+      <c r="AC63" s="119"/>
+      <c r="AD63" s="119"/>
+      <c r="AE63" s="119"/>
+      <c r="AF63" s="119"/>
+      <c r="AG63" s="119"/>
+      <c r="AH63" s="119"/>
+      <c r="AI63" s="119"/>
+      <c r="AJ63" s="119"/>
+      <c r="AK63" s="119"/>
+      <c r="AL63" s="119"/>
+      <c r="AM63" s="119"/>
+      <c r="AN63" s="119"/>
+      <c r="AO63" s="119"/>
+      <c r="AP63" s="119"/>
+      <c r="AQ63" s="119"/>
+      <c r="AR63" s="119"/>
+      <c r="AS63" s="119"/>
+      <c r="AT63" s="119"/>
+      <c r="AU63" s="119"/>
+      <c r="AV63" s="119"/>
+      <c r="AW63" s="119"/>
+      <c r="AX63" s="119"/>
+      <c r="AY63" s="119"/>
+      <c r="AZ63" s="119"/>
+      <c r="BA63" s="119"/>
+      <c r="BB63" s="119"/>
+      <c r="BC63" s="119"/>
+      <c r="BD63" s="119"/>
+      <c r="BE63" s="119"/>
+      <c r="BF63" s="119"/>
+      <c r="BG63" s="119"/>
+      <c r="BH63" s="119"/>
+      <c r="BI63" s="119"/>
+      <c r="BJ63" s="119"/>
+      <c r="BK63" s="119"/>
+      <c r="BL63" s="119"/>
+      <c r="BM63" s="119"/>
+      <c r="BN63" s="119"/>
     </row>
     <row r="64" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A64" s="4" t="str">
@@ -10628,7 +10301,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6">
@@ -10716,7 +10389,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6">
@@ -10795,93 +10468,93 @@
       <c r="BM65" s="4"/>
       <c r="BN65" s="4"/>
     </row>
-    <row r="66" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A66" s="4" t="str">
+    <row r="66" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A66" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.58</v>
       </c>
-      <c r="B66" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6">
-        <f>F63+1</f>
+      <c r="B66" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="122"/>
+      <c r="E66" s="123">
+        <f t="shared" ref="E66:E74" si="52">F63+1</f>
         <v>46113</v>
       </c>
-      <c r="F66" s="7">
-        <f t="shared" ref="F66" si="51">IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
+      <c r="F66" s="124">
+        <f t="shared" ref="F66" si="53">IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
         <v>46116</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="125">
         <v>4</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="126">
         <v>0</v>
       </c>
-      <c r="I66" s="10">
-        <f t="shared" ref="I66" si="52">IF(OR(F66=0,E66=0)," - ",NETWORKDAYS(E66,F66))</f>
+      <c r="I66" s="125">
+        <f t="shared" ref="I66" si="54">IF(OR(F66=0,E66=0)," - ",NETWORKDAYS(E66,F66))</f>
         <v>3</v>
       </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
-      <c r="AL66" s="4"/>
-      <c r="AM66" s="4"/>
-      <c r="AN66" s="4"/>
-      <c r="AO66" s="4"/>
-      <c r="AP66" s="4"/>
-      <c r="AQ66" s="4"/>
-      <c r="AR66" s="4"/>
-      <c r="AS66" s="4"/>
-      <c r="AT66" s="4"/>
-      <c r="AU66" s="4"/>
-      <c r="AV66" s="4"/>
-      <c r="AW66" s="4"/>
-      <c r="AX66" s="4"/>
-      <c r="AY66" s="4"/>
-      <c r="AZ66" s="4"/>
-      <c r="BA66" s="4"/>
-      <c r="BB66" s="4"/>
-      <c r="BC66" s="4"/>
-      <c r="BD66" s="4"/>
-      <c r="BE66" s="4"/>
-      <c r="BF66" s="4"/>
-      <c r="BG66" s="4"/>
-      <c r="BH66" s="4"/>
-      <c r="BI66" s="4"/>
-      <c r="BJ66" s="4"/>
-      <c r="BK66" s="4"/>
-      <c r="BL66" s="4"/>
-      <c r="BM66" s="4"/>
-      <c r="BN66" s="4"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="119"/>
+      <c r="L66" s="119"/>
+      <c r="M66" s="119"/>
+      <c r="N66" s="119"/>
+      <c r="O66" s="119"/>
+      <c r="P66" s="119"/>
+      <c r="Q66" s="119"/>
+      <c r="R66" s="119"/>
+      <c r="S66" s="119"/>
+      <c r="T66" s="119"/>
+      <c r="U66" s="119"/>
+      <c r="V66" s="119"/>
+      <c r="W66" s="119"/>
+      <c r="X66" s="119"/>
+      <c r="Y66" s="119"/>
+      <c r="Z66" s="119"/>
+      <c r="AA66" s="119"/>
+      <c r="AB66" s="119"/>
+      <c r="AC66" s="119"/>
+      <c r="AD66" s="119"/>
+      <c r="AE66" s="119"/>
+      <c r="AF66" s="119"/>
+      <c r="AG66" s="119"/>
+      <c r="AH66" s="119"/>
+      <c r="AI66" s="119"/>
+      <c r="AJ66" s="119"/>
+      <c r="AK66" s="119"/>
+      <c r="AL66" s="119"/>
+      <c r="AM66" s="119"/>
+      <c r="AN66" s="119"/>
+      <c r="AO66" s="119"/>
+      <c r="AP66" s="119"/>
+      <c r="AQ66" s="119"/>
+      <c r="AR66" s="119"/>
+      <c r="AS66" s="119"/>
+      <c r="AT66" s="119"/>
+      <c r="AU66" s="119"/>
+      <c r="AV66" s="119"/>
+      <c r="AW66" s="119"/>
+      <c r="AX66" s="119"/>
+      <c r="AY66" s="119"/>
+      <c r="AZ66" s="119"/>
+      <c r="BA66" s="119"/>
+      <c r="BB66" s="119"/>
+      <c r="BC66" s="119"/>
+      <c r="BD66" s="119"/>
+      <c r="BE66" s="119"/>
+      <c r="BF66" s="119"/>
+      <c r="BG66" s="119"/>
+      <c r="BH66" s="119"/>
+      <c r="BI66" s="119"/>
+      <c r="BJ66" s="119"/>
+      <c r="BK66" s="119"/>
+      <c r="BL66" s="119"/>
+      <c r="BM66" s="119"/>
+      <c r="BN66" s="119"/>
     </row>
     <row r="67" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A67" s="4" t="str">
@@ -10892,11 +10565,11 @@
         <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6">
-        <f>F64+1</f>
+        <f t="shared" si="52"/>
         <v>46113</v>
       </c>
       <c r="F67" s="7">
@@ -10980,11 +10653,11 @@
         <v>65</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6">
-        <f>F65+1</f>
+        <f t="shared" si="52"/>
         <v>46113</v>
       </c>
       <c r="F68" s="7">
@@ -11059,93 +10732,93 @@
       <c r="BM68" s="4"/>
       <c r="BN68" s="4"/>
     </row>
-    <row r="69" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A69" s="4" t="str">
+    <row r="69" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A69" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.61</v>
       </c>
-      <c r="B69" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6">
-        <f>F66+1</f>
+      <c r="B69" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="122"/>
+      <c r="E69" s="123">
+        <f t="shared" si="52"/>
         <v>46117</v>
       </c>
-      <c r="F69" s="7">
-        <f t="shared" ref="F69" si="53">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+      <c r="F69" s="124">
+        <f t="shared" ref="F69" si="55">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
         <v>46120</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="125">
         <v>4</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="126">
         <v>0</v>
       </c>
-      <c r="I69" s="10">
-        <f t="shared" ref="I69" si="54">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
+      <c r="I69" s="125">
+        <f t="shared" ref="I69" si="56">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
         <v>3</v>
       </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
-      <c r="AI69" s="4"/>
-      <c r="AJ69" s="4"/>
-      <c r="AK69" s="4"/>
-      <c r="AL69" s="4"/>
-      <c r="AM69" s="4"/>
-      <c r="AN69" s="4"/>
-      <c r="AO69" s="4"/>
-      <c r="AP69" s="4"/>
-      <c r="AQ69" s="4"/>
-      <c r="AR69" s="4"/>
-      <c r="AS69" s="4"/>
-      <c r="AT69" s="4"/>
-      <c r="AU69" s="4"/>
-      <c r="AV69" s="4"/>
-      <c r="AW69" s="4"/>
-      <c r="AX69" s="4"/>
-      <c r="AY69" s="4"/>
-      <c r="AZ69" s="4"/>
-      <c r="BA69" s="4"/>
-      <c r="BB69" s="4"/>
-      <c r="BC69" s="4"/>
-      <c r="BD69" s="4"/>
-      <c r="BE69" s="4"/>
-      <c r="BF69" s="4"/>
-      <c r="BG69" s="4"/>
-      <c r="BH69" s="4"/>
-      <c r="BI69" s="4"/>
-      <c r="BJ69" s="4"/>
-      <c r="BK69" s="4"/>
-      <c r="BL69" s="4"/>
-      <c r="BM69" s="4"/>
-      <c r="BN69" s="4"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="119"/>
+      <c r="P69" s="119"/>
+      <c r="Q69" s="119"/>
+      <c r="R69" s="119"/>
+      <c r="S69" s="119"/>
+      <c r="T69" s="119"/>
+      <c r="U69" s="119"/>
+      <c r="V69" s="119"/>
+      <c r="W69" s="119"/>
+      <c r="X69" s="119"/>
+      <c r="Y69" s="119"/>
+      <c r="Z69" s="119"/>
+      <c r="AA69" s="119"/>
+      <c r="AB69" s="119"/>
+      <c r="AC69" s="119"/>
+      <c r="AD69" s="119"/>
+      <c r="AE69" s="119"/>
+      <c r="AF69" s="119"/>
+      <c r="AG69" s="119"/>
+      <c r="AH69" s="119"/>
+      <c r="AI69" s="119"/>
+      <c r="AJ69" s="119"/>
+      <c r="AK69" s="119"/>
+      <c r="AL69" s="119"/>
+      <c r="AM69" s="119"/>
+      <c r="AN69" s="119"/>
+      <c r="AO69" s="119"/>
+      <c r="AP69" s="119"/>
+      <c r="AQ69" s="119"/>
+      <c r="AR69" s="119"/>
+      <c r="AS69" s="119"/>
+      <c r="AT69" s="119"/>
+      <c r="AU69" s="119"/>
+      <c r="AV69" s="119"/>
+      <c r="AW69" s="119"/>
+      <c r="AX69" s="119"/>
+      <c r="AY69" s="119"/>
+      <c r="AZ69" s="119"/>
+      <c r="BA69" s="119"/>
+      <c r="BB69" s="119"/>
+      <c r="BC69" s="119"/>
+      <c r="BD69" s="119"/>
+      <c r="BE69" s="119"/>
+      <c r="BF69" s="119"/>
+      <c r="BG69" s="119"/>
+      <c r="BH69" s="119"/>
+      <c r="BI69" s="119"/>
+      <c r="BJ69" s="119"/>
+      <c r="BK69" s="119"/>
+      <c r="BL69" s="119"/>
+      <c r="BM69" s="119"/>
+      <c r="BN69" s="119"/>
     </row>
     <row r="70" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A70" s="4" t="str">
@@ -11156,11 +10829,11 @@
         <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6">
-        <f>F67+1</f>
+        <f t="shared" si="52"/>
         <v>46115</v>
       </c>
       <c r="F70" s="7">
@@ -11235,357 +10908,357 @@
       <c r="BM70" s="4"/>
       <c r="BN70" s="4"/>
     </row>
-    <row r="71" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A71" s="4" t="str">
+    <row r="71" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A71" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.63</v>
       </c>
-      <c r="B71" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6">
-        <f>F68+1</f>
+      <c r="B71" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="122"/>
+      <c r="E71" s="123">
+        <f t="shared" si="52"/>
         <v>46115</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="124">
         <f t="shared" si="35"/>
         <v>46118</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="125">
         <v>4</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="126">
         <v>0</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="125">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
-      <c r="AI71" s="4"/>
-      <c r="AJ71" s="4"/>
-      <c r="AK71" s="4"/>
-      <c r="AL71" s="4"/>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="4"/>
-      <c r="AO71" s="4"/>
-      <c r="AP71" s="4"/>
-      <c r="AQ71" s="4"/>
-      <c r="AR71" s="4"/>
-      <c r="AS71" s="4"/>
-      <c r="AT71" s="4"/>
-      <c r="AU71" s="4"/>
-      <c r="AV71" s="4"/>
-      <c r="AW71" s="4"/>
-      <c r="AX71" s="4"/>
-      <c r="AY71" s="4"/>
-      <c r="AZ71" s="4"/>
-      <c r="BA71" s="4"/>
-      <c r="BB71" s="4"/>
-      <c r="BC71" s="4"/>
-      <c r="BD71" s="4"/>
-      <c r="BE71" s="4"/>
-      <c r="BF71" s="4"/>
-      <c r="BG71" s="4"/>
-      <c r="BH71" s="4"/>
-      <c r="BI71" s="4"/>
-      <c r="BJ71" s="4"/>
-      <c r="BK71" s="4"/>
-      <c r="BL71" s="4"/>
-      <c r="BM71" s="4"/>
-      <c r="BN71" s="4"/>
-    </row>
-    <row r="72" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A72" s="4" t="str">
+      <c r="J71" s="127"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="119"/>
+      <c r="M71" s="119"/>
+      <c r="N71" s="119"/>
+      <c r="O71" s="119"/>
+      <c r="P71" s="119"/>
+      <c r="Q71" s="119"/>
+      <c r="R71" s="119"/>
+      <c r="S71" s="119"/>
+      <c r="T71" s="119"/>
+      <c r="U71" s="119"/>
+      <c r="V71" s="119"/>
+      <c r="W71" s="119"/>
+      <c r="X71" s="119"/>
+      <c r="Y71" s="119"/>
+      <c r="Z71" s="119"/>
+      <c r="AA71" s="119"/>
+      <c r="AB71" s="119"/>
+      <c r="AC71" s="119"/>
+      <c r="AD71" s="119"/>
+      <c r="AE71" s="119"/>
+      <c r="AF71" s="119"/>
+      <c r="AG71" s="119"/>
+      <c r="AH71" s="119"/>
+      <c r="AI71" s="119"/>
+      <c r="AJ71" s="119"/>
+      <c r="AK71" s="119"/>
+      <c r="AL71" s="119"/>
+      <c r="AM71" s="119"/>
+      <c r="AN71" s="119"/>
+      <c r="AO71" s="119"/>
+      <c r="AP71" s="119"/>
+      <c r="AQ71" s="119"/>
+      <c r="AR71" s="119"/>
+      <c r="AS71" s="119"/>
+      <c r="AT71" s="119"/>
+      <c r="AU71" s="119"/>
+      <c r="AV71" s="119"/>
+      <c r="AW71" s="119"/>
+      <c r="AX71" s="119"/>
+      <c r="AY71" s="119"/>
+      <c r="AZ71" s="119"/>
+      <c r="BA71" s="119"/>
+      <c r="BB71" s="119"/>
+      <c r="BC71" s="119"/>
+      <c r="BD71" s="119"/>
+      <c r="BE71" s="119"/>
+      <c r="BF71" s="119"/>
+      <c r="BG71" s="119"/>
+      <c r="BH71" s="119"/>
+      <c r="BI71" s="119"/>
+      <c r="BJ71" s="119"/>
+      <c r="BK71" s="119"/>
+      <c r="BL71" s="119"/>
+      <c r="BM71" s="119"/>
+      <c r="BN71" s="119"/>
+    </row>
+    <row r="72" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A72" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.64</v>
       </c>
-      <c r="B72" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6">
-        <f>F69+1</f>
+      <c r="B72" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="122"/>
+      <c r="E72" s="123">
+        <f t="shared" si="52"/>
         <v>46121</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="124">
         <f t="shared" si="35"/>
         <v>46124</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="125">
         <v>4</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="126">
         <v>0</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="125">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-      <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
-      <c r="AI72" s="4"/>
-      <c r="AJ72" s="4"/>
-      <c r="AK72" s="4"/>
-      <c r="AL72" s="4"/>
-      <c r="AM72" s="4"/>
-      <c r="AN72" s="4"/>
-      <c r="AO72" s="4"/>
-      <c r="AP72" s="4"/>
-      <c r="AQ72" s="4"/>
-      <c r="AR72" s="4"/>
-      <c r="AS72" s="4"/>
-      <c r="AT72" s="4"/>
-      <c r="AU72" s="4"/>
-      <c r="AV72" s="4"/>
-      <c r="AW72" s="4"/>
-      <c r="AX72" s="4"/>
-      <c r="AY72" s="4"/>
-      <c r="AZ72" s="4"/>
-      <c r="BA72" s="4"/>
-      <c r="BB72" s="4"/>
-      <c r="BC72" s="4"/>
-      <c r="BD72" s="4"/>
-      <c r="BE72" s="4"/>
-      <c r="BF72" s="4"/>
-      <c r="BG72" s="4"/>
-      <c r="BH72" s="4"/>
-      <c r="BI72" s="4"/>
-      <c r="BJ72" s="4"/>
-      <c r="BK72" s="4"/>
-      <c r="BL72" s="4"/>
-      <c r="BM72" s="4"/>
-      <c r="BN72" s="4"/>
-    </row>
-    <row r="73" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A73" s="4" t="str">
+      <c r="J72" s="127"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="119"/>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="119"/>
+      <c r="S72" s="119"/>
+      <c r="T72" s="119"/>
+      <c r="U72" s="119"/>
+      <c r="V72" s="119"/>
+      <c r="W72" s="119"/>
+      <c r="X72" s="119"/>
+      <c r="Y72" s="119"/>
+      <c r="Z72" s="119"/>
+      <c r="AA72" s="119"/>
+      <c r="AB72" s="119"/>
+      <c r="AC72" s="119"/>
+      <c r="AD72" s="119"/>
+      <c r="AE72" s="119"/>
+      <c r="AF72" s="119"/>
+      <c r="AG72" s="119"/>
+      <c r="AH72" s="119"/>
+      <c r="AI72" s="119"/>
+      <c r="AJ72" s="119"/>
+      <c r="AK72" s="119"/>
+      <c r="AL72" s="119"/>
+      <c r="AM72" s="119"/>
+      <c r="AN72" s="119"/>
+      <c r="AO72" s="119"/>
+      <c r="AP72" s="119"/>
+      <c r="AQ72" s="119"/>
+      <c r="AR72" s="119"/>
+      <c r="AS72" s="119"/>
+      <c r="AT72" s="119"/>
+      <c r="AU72" s="119"/>
+      <c r="AV72" s="119"/>
+      <c r="AW72" s="119"/>
+      <c r="AX72" s="119"/>
+      <c r="AY72" s="119"/>
+      <c r="AZ72" s="119"/>
+      <c r="BA72" s="119"/>
+      <c r="BB72" s="119"/>
+      <c r="BC72" s="119"/>
+      <c r="BD72" s="119"/>
+      <c r="BE72" s="119"/>
+      <c r="BF72" s="119"/>
+      <c r="BG72" s="119"/>
+      <c r="BH72" s="119"/>
+      <c r="BI72" s="119"/>
+      <c r="BJ72" s="119"/>
+      <c r="BK72" s="119"/>
+      <c r="BL72" s="119"/>
+      <c r="BM72" s="119"/>
+      <c r="BN72" s="119"/>
+    </row>
+    <row r="73" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A73" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.65</v>
       </c>
-      <c r="B73" s="94" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6">
-        <f>F70+1</f>
+      <c r="B73" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="122"/>
+      <c r="E73" s="123">
+        <f t="shared" si="52"/>
         <v>46119</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="124">
         <f t="shared" si="35"/>
         <v>46122</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="125">
         <v>4</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="126">
         <v>0</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="125">
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
-      <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="4"/>
-      <c r="AL73" s="4"/>
-      <c r="AM73" s="4"/>
-      <c r="AN73" s="4"/>
-      <c r="AO73" s="4"/>
-      <c r="AP73" s="4"/>
-      <c r="AQ73" s="4"/>
-      <c r="AR73" s="4"/>
-      <c r="AS73" s="4"/>
-      <c r="AT73" s="4"/>
-      <c r="AU73" s="4"/>
-      <c r="AV73" s="4"/>
-      <c r="AW73" s="4"/>
-      <c r="AX73" s="4"/>
-      <c r="AY73" s="4"/>
-      <c r="AZ73" s="4"/>
-      <c r="BA73" s="4"/>
-      <c r="BB73" s="4"/>
-      <c r="BC73" s="4"/>
-      <c r="BD73" s="4"/>
-      <c r="BE73" s="4"/>
-      <c r="BF73" s="4"/>
-      <c r="BG73" s="4"/>
-      <c r="BH73" s="4"/>
-      <c r="BI73" s="4"/>
-      <c r="BJ73" s="4"/>
-      <c r="BK73" s="4"/>
-      <c r="BL73" s="4"/>
-      <c r="BM73" s="4"/>
-      <c r="BN73" s="4"/>
-    </row>
-    <row r="74" spans="1:66" s="1" customFormat="1" ht="18">
-      <c r="A74" s="4" t="str">
+      <c r="J73" s="127"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="119"/>
+      <c r="M73" s="119"/>
+      <c r="N73" s="119"/>
+      <c r="O73" s="119"/>
+      <c r="P73" s="119"/>
+      <c r="Q73" s="119"/>
+      <c r="R73" s="119"/>
+      <c r="S73" s="119"/>
+      <c r="T73" s="119"/>
+      <c r="U73" s="119"/>
+      <c r="V73" s="119"/>
+      <c r="W73" s="119"/>
+      <c r="X73" s="119"/>
+      <c r="Y73" s="119"/>
+      <c r="Z73" s="119"/>
+      <c r="AA73" s="119"/>
+      <c r="AB73" s="119"/>
+      <c r="AC73" s="119"/>
+      <c r="AD73" s="119"/>
+      <c r="AE73" s="119"/>
+      <c r="AF73" s="119"/>
+      <c r="AG73" s="119"/>
+      <c r="AH73" s="119"/>
+      <c r="AI73" s="119"/>
+      <c r="AJ73" s="119"/>
+      <c r="AK73" s="119"/>
+      <c r="AL73" s="119"/>
+      <c r="AM73" s="119"/>
+      <c r="AN73" s="119"/>
+      <c r="AO73" s="119"/>
+      <c r="AP73" s="119"/>
+      <c r="AQ73" s="119"/>
+      <c r="AR73" s="119"/>
+      <c r="AS73" s="119"/>
+      <c r="AT73" s="119"/>
+      <c r="AU73" s="119"/>
+      <c r="AV73" s="119"/>
+      <c r="AW73" s="119"/>
+      <c r="AX73" s="119"/>
+      <c r="AY73" s="119"/>
+      <c r="AZ73" s="119"/>
+      <c r="BA73" s="119"/>
+      <c r="BB73" s="119"/>
+      <c r="BC73" s="119"/>
+      <c r="BD73" s="119"/>
+      <c r="BE73" s="119"/>
+      <c r="BF73" s="119"/>
+      <c r="BG73" s="119"/>
+      <c r="BH73" s="119"/>
+      <c r="BI73" s="119"/>
+      <c r="BJ73" s="119"/>
+      <c r="BK73" s="119"/>
+      <c r="BL73" s="119"/>
+      <c r="BM73" s="119"/>
+      <c r="BN73" s="119"/>
+    </row>
+    <row r="74" spans="1:66" s="121" customFormat="1" ht="18">
+      <c r="A74" s="119" t="str">
         <f t="shared" si="14"/>
         <v>1.66</v>
       </c>
-      <c r="B74" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6">
-        <f>F71+1</f>
+      <c r="B74" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="122"/>
+      <c r="E74" s="123">
+        <f t="shared" si="52"/>
         <v>46119</v>
       </c>
-      <c r="F74" s="7">
-        <f t="shared" ref="F74" si="55">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+      <c r="F74" s="124">
+        <f t="shared" ref="F74" si="57">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
         <v>46122</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="125">
         <v>4</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="126">
         <v>0</v>
       </c>
-      <c r="I74" s="10">
-        <f t="shared" ref="I74" si="56">IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
+      <c r="I74" s="125">
+        <f t="shared" ref="I74" si="58">IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
         <v>4</v>
       </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
-      <c r="AI74" s="4"/>
-      <c r="AJ74" s="4"/>
-      <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-      <c r="AM74" s="4"/>
-      <c r="AN74" s="4"/>
-      <c r="AO74" s="4"/>
-      <c r="AP74" s="4"/>
-      <c r="AQ74" s="4"/>
-      <c r="AR74" s="4"/>
-      <c r="AS74" s="4"/>
-      <c r="AT74" s="4"/>
-      <c r="AU74" s="4"/>
-      <c r="AV74" s="4"/>
-      <c r="AW74" s="4"/>
-      <c r="AX74" s="4"/>
-      <c r="AY74" s="4"/>
-      <c r="AZ74" s="4"/>
-      <c r="BA74" s="4"/>
-      <c r="BB74" s="4"/>
-      <c r="BC74" s="4"/>
-      <c r="BD74" s="4"/>
-      <c r="BE74" s="4"/>
-      <c r="BF74" s="4"/>
-      <c r="BG74" s="4"/>
-      <c r="BH74" s="4"/>
-      <c r="BI74" s="4"/>
-      <c r="BJ74" s="4"/>
-      <c r="BK74" s="4"/>
-      <c r="BL74" s="4"/>
-      <c r="BM74" s="4"/>
-      <c r="BN74" s="4"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="119"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="119"/>
+      <c r="O74" s="119"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="119"/>
+      <c r="S74" s="119"/>
+      <c r="T74" s="119"/>
+      <c r="U74" s="119"/>
+      <c r="V74" s="119"/>
+      <c r="W74" s="119"/>
+      <c r="X74" s="119"/>
+      <c r="Y74" s="119"/>
+      <c r="Z74" s="119"/>
+      <c r="AA74" s="119"/>
+      <c r="AB74" s="119"/>
+      <c r="AC74" s="119"/>
+      <c r="AD74" s="119"/>
+      <c r="AE74" s="119"/>
+      <c r="AF74" s="119"/>
+      <c r="AG74" s="119"/>
+      <c r="AH74" s="119"/>
+      <c r="AI74" s="119"/>
+      <c r="AJ74" s="119"/>
+      <c r="AK74" s="119"/>
+      <c r="AL74" s="119"/>
+      <c r="AM74" s="119"/>
+      <c r="AN74" s="119"/>
+      <c r="AO74" s="119"/>
+      <c r="AP74" s="119"/>
+      <c r="AQ74" s="119"/>
+      <c r="AR74" s="119"/>
+      <c r="AS74" s="119"/>
+      <c r="AT74" s="119"/>
+      <c r="AU74" s="119"/>
+      <c r="AV74" s="119"/>
+      <c r="AW74" s="119"/>
+      <c r="AX74" s="119"/>
+      <c r="AY74" s="119"/>
+      <c r="AZ74" s="119"/>
+      <c r="BA74" s="119"/>
+      <c r="BB74" s="119"/>
+      <c r="BC74" s="119"/>
+      <c r="BD74" s="119"/>
+      <c r="BE74" s="119"/>
+      <c r="BF74" s="119"/>
+      <c r="BG74" s="119"/>
+      <c r="BH74" s="119"/>
+      <c r="BI74" s="119"/>
+      <c r="BJ74" s="119"/>
+      <c r="BK74" s="119"/>
+      <c r="BL74" s="119"/>
+      <c r="BM74" s="119"/>
+      <c r="BN74" s="119"/>
     </row>
     <row r="76" spans="1:66" s="1" customFormat="1" ht="18">
       <c r="A76" s="4"/>
@@ -12536,13 +12209,13 @@
       <c r="D90" s="97"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98" t="str">
-        <f t="shared" ref="F90:F95" si="57">IF(ISBLANK(E90)," - ",IF(G90=0,E90,E90+G90-1))</f>
+        <f t="shared" ref="F90:F95" si="59">IF(ISBLANK(E90)," - ",IF(G90=0,E90,E90+G90-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G90" s="99"/>
       <c r="H90" s="100"/>
       <c r="I90" s="101" t="str">
-        <f t="shared" ref="I90:I95" si="58">IF(OR(F90=0,E90=0)," - ",NETWORKDAYS(E90,F90))</f>
+        <f t="shared" ref="I90:I95" si="60">IF(OR(F90=0,E90=0)," - ",NETWORKDAYS(E90,F90))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J90" s="102"/>
@@ -12605,7 +12278,7 @@
     </row>
     <row r="91" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A91" s="4" t="str">
-        <f t="shared" ref="A91:A129" si="59">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A91:A129" si="61">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B91" s="94" t="s">
@@ -12619,7 +12292,7 @@
         <v>46057</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>46063</v>
       </c>
       <c r="G91" s="8">
@@ -12629,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="J91" s="11"/>
@@ -12692,7 +12365,7 @@
     </row>
     <row r="92" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A92" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.2</v>
       </c>
       <c r="B92" s="94" t="s">
@@ -12706,7 +12379,7 @@
         <v>46064</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>46070</v>
       </c>
       <c r="G92" s="8">
@@ -12716,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="J92" s="11"/>
@@ -12779,7 +12452,7 @@
     </row>
     <row r="93" spans="1:66" s="1" customFormat="1" ht="44.25" hidden="1" customHeight="1">
       <c r="A93" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.3</v>
       </c>
       <c r="B93" s="94" t="s">
@@ -12793,7 +12466,7 @@
         <v>46064</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>46070</v>
       </c>
       <c r="G93" s="8">
@@ -12803,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="J93" s="11"/>
@@ -12866,7 +12539,7 @@
     </row>
     <row r="94" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A94" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.4</v>
       </c>
       <c r="B94" s="94" t="s">
@@ -12880,7 +12553,7 @@
         <v>46071</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>46077</v>
       </c>
       <c r="G94" s="8">
@@ -12890,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="J94" s="11"/>
@@ -12953,7 +12626,7 @@
     </row>
     <row r="95" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A95" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.5</v>
       </c>
       <c r="B95" s="94" t="s">
@@ -12967,7 +12640,7 @@
         <v>46071</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>46077</v>
       </c>
       <c r="G95" s="8">
@@ -12977,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="J95" s="11"/>
@@ -13040,7 +12713,7 @@
     </row>
     <row r="96" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A96" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.6</v>
       </c>
       <c r="B96" s="94" t="s">
@@ -13054,7 +12727,7 @@
         <v>46078</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ref="F96:F110" si="60">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
+        <f t="shared" ref="F96:F110" si="62">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
         <v>46084</v>
       </c>
       <c r="G96" s="8">
@@ -13064,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" ref="I96:I110" si="61">IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
+        <f t="shared" ref="I96:I110" si="63">IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
         <v>5</v>
       </c>
       <c r="J96" s="11"/>
@@ -13127,7 +12800,7 @@
     </row>
     <row r="97" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A97" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.7</v>
       </c>
       <c r="B97" s="94" t="s">
@@ -13141,7 +12814,7 @@
         <v>46078</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46084</v>
       </c>
       <c r="G97" s="8">
@@ -13151,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J97" s="11"/>
@@ -13214,7 +12887,7 @@
     </row>
     <row r="98" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A98" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.8</v>
       </c>
       <c r="B98" s="94" t="s">
@@ -13228,7 +12901,7 @@
         <v>46057</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46063</v>
       </c>
       <c r="G98" s="8">
@@ -13238,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J98" s="11"/>
@@ -13301,7 +12974,7 @@
     </row>
     <row r="99" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A99" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.9</v>
       </c>
       <c r="B99" s="94" t="s">
@@ -13315,7 +12988,7 @@
         <v>46085</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46091</v>
       </c>
       <c r="G99" s="8">
@@ -13325,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J99" s="11"/>
@@ -13388,7 +13061,7 @@
     </row>
     <row r="100" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A100" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.10</v>
       </c>
       <c r="B100" s="94" t="s">
@@ -13402,7 +13075,7 @@
         <v>46085</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46091</v>
       </c>
       <c r="G100" s="8">
@@ -13412,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J100" s="11"/>
@@ -13475,7 +13148,7 @@
     </row>
     <row r="101" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A101" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.11</v>
       </c>
       <c r="B101" s="94" t="s">
@@ -13489,7 +13162,7 @@
         <v>46092</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46098</v>
       </c>
       <c r="G101" s="8">
@@ -13499,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J101" s="11"/>
@@ -13562,7 +13235,7 @@
     </row>
     <row r="102" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A102" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.12</v>
       </c>
       <c r="B102" s="94" t="s">
@@ -13576,7 +13249,7 @@
         <v>46092</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46098</v>
       </c>
       <c r="G102" s="8">
@@ -13586,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J102" s="11"/>
@@ -13649,7 +13322,7 @@
     </row>
     <row r="103" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A103" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.13</v>
       </c>
       <c r="B103" s="94" t="s">
@@ -13663,7 +13336,7 @@
         <v>46099</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46105</v>
       </c>
       <c r="G103" s="8">
@@ -13673,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J103" s="11"/>
@@ -13736,7 +13409,7 @@
     </row>
     <row r="104" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A104" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.14</v>
       </c>
       <c r="B104" s="94" t="s">
@@ -13750,7 +13423,7 @@
         <v>46106</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" ref="F104" si="62">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
+        <f t="shared" ref="F104" si="64">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
         <v>46112</v>
       </c>
       <c r="G104" s="8">
@@ -13760,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" ref="I104" si="63">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
+        <f t="shared" ref="I104" si="65">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
         <v>5</v>
       </c>
       <c r="J104" s="11"/>
@@ -13823,7 +13496,7 @@
     </row>
     <row r="105" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A105" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.15</v>
       </c>
       <c r="B105" s="94" t="s">
@@ -13837,7 +13510,7 @@
         <v>46106</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" ref="F105" si="64">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
+        <f t="shared" ref="F105" si="66">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
         <v>46112</v>
       </c>
       <c r="G105" s="8">
@@ -13847,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" ref="I105" si="65">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
+        <f t="shared" ref="I105" si="67">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
         <v>5</v>
       </c>
       <c r="J105" s="11"/>
@@ -13910,7 +13583,7 @@
     </row>
     <row r="106" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A106" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.16</v>
       </c>
       <c r="B106" s="94" t="s">
@@ -13924,7 +13597,7 @@
         <v>46113</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46119</v>
       </c>
       <c r="G106" s="8">
@@ -13934,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J106" s="11"/>
@@ -13997,7 +13670,7 @@
     </row>
     <row r="107" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A107" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.17</v>
       </c>
       <c r="B107" s="94" t="s">
@@ -14011,7 +13684,7 @@
         <v>46113</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46119</v>
       </c>
       <c r="G107" s="8">
@@ -14021,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J107" s="11"/>
@@ -14084,7 +13757,7 @@
     </row>
     <row r="108" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A108" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.18</v>
       </c>
       <c r="B108" s="94" t="s">
@@ -14098,7 +13771,7 @@
         <v>46120</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46126</v>
       </c>
       <c r="G108" s="8">
@@ -14108,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J108" s="11"/>
@@ -14171,7 +13844,7 @@
     </row>
     <row r="109" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A109" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.19</v>
       </c>
       <c r="B109" s="94" t="s">
@@ -14185,7 +13858,7 @@
         <v>46120</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46126</v>
       </c>
       <c r="G109" s="8">
@@ -14195,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J109" s="11"/>
@@ -14258,7 +13931,7 @@
     </row>
     <row r="110" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A110" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.20</v>
       </c>
       <c r="B110" s="94" t="s">
@@ -14272,7 +13945,7 @@
         <v>46127</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46133</v>
       </c>
       <c r="G110" s="8">
@@ -14282,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="J110" s="11"/>
@@ -14345,7 +14018,7 @@
     </row>
     <row r="111" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A111" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.21</v>
       </c>
       <c r="B111" s="94" t="s">
@@ -14359,7 +14032,7 @@
         <v>46127</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" ref="F111:F121" si="66">IF(ISBLANK(E111)," - ",IF(G111=0,E111,E111+G111-1))</f>
+        <f t="shared" ref="F111:F121" si="68">IF(ISBLANK(E111)," - ",IF(G111=0,E111,E111+G111-1))</f>
         <v>46133</v>
       </c>
       <c r="G111" s="8">
@@ -14369,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" ref="I111:I119" si="67">IF(OR(F111=0,E111=0)," - ",NETWORKDAYS(E111,F111))</f>
+        <f t="shared" ref="I111:I119" si="69">IF(OR(F111=0,E111=0)," - ",NETWORKDAYS(E111,F111))</f>
         <v>5</v>
       </c>
       <c r="J111" s="11"/>
@@ -14432,7 +14105,7 @@
     </row>
     <row r="112" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A112" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.22</v>
       </c>
       <c r="B112" s="94" t="s">
@@ -14446,7 +14119,7 @@
         <v>46134</v>
       </c>
       <c r="F112" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>46140</v>
       </c>
       <c r="G112" s="8">
@@ -14456,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="J112" s="11"/>
@@ -14519,7 +14192,7 @@
     </row>
     <row r="113" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A113" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.23</v>
       </c>
       <c r="B113" s="94" t="s">
@@ -14533,7 +14206,7 @@
         <v>46134</v>
       </c>
       <c r="F113" s="7">
-        <f t="shared" ref="F113:F114" si="68">IF(ISBLANK(E113)," - ",IF(G113=0,E113,E113+G113-1))</f>
+        <f t="shared" ref="F113:F114" si="70">IF(ISBLANK(E113)," - ",IF(G113=0,E113,E113+G113-1))</f>
         <v>46140</v>
       </c>
       <c r="G113" s="8">
@@ -14543,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" ref="I113:I114" si="69">IF(OR(F113=0,E113=0)," - ",NETWORKDAYS(E113,F113))</f>
+        <f t="shared" ref="I113:I114" si="71">IF(OR(F113=0,E113=0)," - ",NETWORKDAYS(E113,F113))</f>
         <v>5</v>
       </c>
       <c r="J113" s="11"/>
@@ -14606,7 +14279,7 @@
     </row>
     <row r="114" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A114" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.24</v>
       </c>
       <c r="B114" s="94" t="s">
@@ -14620,7 +14293,7 @@
         <v>46141</v>
       </c>
       <c r="F114" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>46147</v>
       </c>
       <c r="G114" s="8">
@@ -14630,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
       <c r="J114" s="11"/>
@@ -14693,7 +14366,7 @@
     </row>
     <row r="115" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A115" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.25</v>
       </c>
       <c r="B115" s="94" t="s">
@@ -14707,7 +14380,7 @@
         <v>46141</v>
       </c>
       <c r="F115" s="7">
-        <f t="shared" ref="F115:F117" si="70">IF(ISBLANK(E115)," - ",IF(G115=0,E115,E115+G115-1))</f>
+        <f t="shared" ref="F115:F117" si="72">IF(ISBLANK(E115)," - ",IF(G115=0,E115,E115+G115-1))</f>
         <v>46147</v>
       </c>
       <c r="G115" s="8">
@@ -14717,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" ref="I115:I117" si="71">IF(OR(F115=0,E115=0)," - ",NETWORKDAYS(E115,F115))</f>
+        <f t="shared" ref="I115:I117" si="73">IF(OR(F115=0,E115=0)," - ",NETWORKDAYS(E115,F115))</f>
         <v>5</v>
       </c>
       <c r="J115" s="11"/>
@@ -14780,7 +14453,7 @@
     </row>
     <row r="116" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A116" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.26</v>
       </c>
       <c r="B116" s="94" t="s">
@@ -14794,7 +14467,7 @@
         <v>46148</v>
       </c>
       <c r="F116" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>46154</v>
       </c>
       <c r="G116" s="8">
@@ -14804,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>5</v>
       </c>
       <c r="J116" s="11"/>
@@ -14867,7 +14540,7 @@
     </row>
     <row r="117" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A117" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.27</v>
       </c>
       <c r="B117" s="94" t="s">
@@ -14881,7 +14554,7 @@
         <v>46148</v>
       </c>
       <c r="F117" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>46154</v>
       </c>
       <c r="G117" s="8">
@@ -14891,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>5</v>
       </c>
       <c r="J117" s="11"/>
@@ -14963,13 +14636,13 @@
       <c r="D118" s="97"/>
       <c r="E118" s="98"/>
       <c r="F118" s="98" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G118" s="99"/>
       <c r="H118" s="100"/>
       <c r="I118" s="101" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J118" s="102"/>
@@ -15032,7 +14705,7 @@
     </row>
     <row r="119" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A119" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2.1</v>
       </c>
       <c r="B119" s="104" t="s">
@@ -15046,7 +14719,7 @@
         <v>46034</v>
       </c>
       <c r="F119" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>46038</v>
       </c>
       <c r="G119" s="8">
@@ -15056,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="J119" s="11"/>
@@ -15119,7 +14792,7 @@
     </row>
     <row r="120" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A120" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2.2</v>
       </c>
       <c r="B120" s="104" t="s">
@@ -15133,7 +14806,7 @@
         <v>46023</v>
       </c>
       <c r="F120" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>46032</v>
       </c>
       <c r="G120" s="8">
@@ -15205,7 +14878,7 @@
     </row>
     <row r="121" spans="1:66" s="1" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A121" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2.3</v>
       </c>
       <c r="B121" s="104" t="s">
@@ -15219,7 +14892,7 @@
         <v>46034</v>
       </c>
       <c r="F121" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>46038</v>
       </c>
       <c r="G121" s="8">
@@ -15300,13 +14973,13 @@
       <c r="D122" s="97"/>
       <c r="E122" s="98"/>
       <c r="F122" s="98" t="str">
-        <f t="shared" ref="F122:F127" si="72">IF(ISBLANK(E122)," - ",IF(G122=0,E122,E122+G122-1))</f>
+        <f t="shared" ref="F122:F127" si="74">IF(ISBLANK(E122)," - ",IF(G122=0,E122,E122+G122-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G122" s="99"/>
       <c r="H122" s="100"/>
       <c r="I122" s="101" t="str">
-        <f t="shared" ref="I122" si="73">IF(OR(F122=0,E122=0)," - ",NETWORKDAYS(E122,F122))</f>
+        <f t="shared" ref="I122" si="75">IF(OR(F122=0,E122=0)," - ",NETWORKDAYS(E122,F122))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J122" s="102"/>
@@ -15369,7 +15042,7 @@
     </row>
     <row r="123" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A123" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.1</v>
       </c>
       <c r="B123" s="104" t="s">
@@ -15383,7 +15056,7 @@
         <v>46041</v>
       </c>
       <c r="F123" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>46044</v>
       </c>
       <c r="G123" s="8">
@@ -15455,7 +15128,7 @@
     </row>
     <row r="124" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A124" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.2</v>
       </c>
       <c r="B124" s="104" t="s">
@@ -15469,7 +15142,7 @@
         <v>46041</v>
       </c>
       <c r="F124" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>46044</v>
       </c>
       <c r="G124" s="8">
@@ -15541,7 +15214,7 @@
     </row>
     <row r="125" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A125" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.3</v>
       </c>
       <c r="B125" s="104" t="s">
@@ -15555,7 +15228,7 @@
         <v>46045</v>
       </c>
       <c r="F125" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>46050</v>
       </c>
       <c r="G125" s="8">
@@ -15627,7 +15300,7 @@
     </row>
     <row r="126" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A126" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.4</v>
       </c>
       <c r="B126" s="104" t="s">
@@ -15641,7 +15314,7 @@
         <v>46051</v>
       </c>
       <c r="F126" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>46056</v>
       </c>
       <c r="G126" s="8">
@@ -15713,7 +15386,7 @@
     </row>
     <row r="127" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A127" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.5</v>
       </c>
       <c r="B127" s="104" t="s">
@@ -15727,7 +15400,7 @@
         <v>46045</v>
       </c>
       <c r="F127" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>46050</v>
       </c>
       <c r="G127" s="8">
@@ -15808,13 +15481,13 @@
       <c r="D128" s="97"/>
       <c r="E128" s="98"/>
       <c r="F128" s="98" t="str">
-        <f t="shared" ref="F128:F129" si="74">IF(ISBLANK(E128)," - ",IF(G128=0,E128,E128+G128-1))</f>
+        <f t="shared" ref="F128:F129" si="76">IF(ISBLANK(E128)," - ",IF(G128=0,E128,E128+G128-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G128" s="99"/>
       <c r="H128" s="100"/>
       <c r="I128" s="101" t="str">
-        <f t="shared" ref="I128" si="75">IF(OR(F128=0,E128=0)," - ",NETWORKDAYS(E128,F128))</f>
+        <f t="shared" ref="I128" si="77">IF(OR(F128=0,E128=0)," - ",NETWORKDAYS(E128,F128))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J128" s="102"/>
@@ -15877,7 +15550,7 @@
     </row>
     <row r="129" spans="1:66" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A129" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4.1</v>
       </c>
       <c r="B129" s="104" t="s">
@@ -15891,7 +15564,7 @@
         <v>46051</v>
       </c>
       <c r="F129" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>46056</v>
       </c>
       <c r="G129" s="8">
@@ -16041,13 +15714,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="66" priority="85">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="86">
+    <cfRule type="expression" dxfId="65" priority="86">
       <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="87">
+    <cfRule type="expression" dxfId="64" priority="87">
       <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16416,12 +16089,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="81" priority="309">
+    <cfRule type="expression" dxfId="63" priority="309">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN31 K33:BN38 K76:BN129 K40:BN41 K46:BN49 K43:BN44 K51:BN52 K54:BN55 K57:BN58 K61:BN62 K64:BN65 K67:BN68 K70:BN70">
-    <cfRule type="expression" dxfId="80" priority="94">
+    <cfRule type="expression" dxfId="62" priority="94">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16440,10 +16113,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN31 K33:BN38 K76:BN129 K40:BN41 K46:BN49 K43:BN44 K51:BN52 K54:BN55 K57:BN58 K61:BN62 K64:BN65 K67:BN68 K70:BN70">
-    <cfRule type="expression" dxfId="79" priority="95">
+    <cfRule type="expression" dxfId="61" priority="95">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="96">
+    <cfRule type="expression" dxfId="60" priority="96">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16476,28 +16149,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="77" priority="57">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="76" priority="58">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="59">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="74" priority="53">
+    <cfRule type="expression" dxfId="56" priority="53">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="73" priority="54">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16516,15 +16189,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="71" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="51">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16543,15 +16216,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="68" priority="45">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="67" priority="46">
+    <cfRule type="expression" dxfId="49" priority="46">
       <formula>AND($E50&lt;=K$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="47">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=K$6,$F50&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16570,15 +16243,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="65" priority="41">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="64" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16597,15 +16270,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="62" priority="37">
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="61" priority="38">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16624,15 +16297,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="58" priority="34">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>AND($E59&lt;=K$6,ROUNDDOWN(($F59-$E59+1)*$H59,0)+$E59-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>AND(NOT(ISBLANK($E59)),$E59&lt;=K$6,$F59&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16651,15 +16324,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="56" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="55" priority="30">
+    <cfRule type="expression" dxfId="37" priority="30">
       <formula>AND($E60&lt;=K$6,ROUNDDOWN(($F60-$E60+1)*$H60,0)+$E60-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="31">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>AND(NOT(ISBLANK($E60)),$E60&lt;=K$6,$F60&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16678,20 +16351,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="53" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="50" priority="21">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="49" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>AND($E63&lt;=K$6,ROUNDDOWN(($F63-$E63+1)*$H63,0)+$E63-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>AND(NOT(ISBLANK($E63)),$E63&lt;=K$6,$F63&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16710,10 +16383,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="46" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>AND($E66&lt;=K$6,ROUNDDOWN(($F66-$E66+1)*$H66,0)+$E66-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="23">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>AND(NOT(ISBLANK($E66)),$E66&lt;=K$6,$F66&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16737,10 +16410,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>AND($E69&lt;=K$6,ROUNDDOWN(($F69-$E69+1)*$H69,0)+$E69-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>AND(NOT(ISBLANK($E69)),$E69&lt;=K$6,$F69&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16759,15 +16432,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>AND($E71&lt;=K$6,ROUNDDOWN(($F71-$E71+1)*$H71,0)+$E71-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>AND(NOT(ISBLANK($E71)),$E71&lt;=K$6,$F71&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16786,15 +16459,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND($E72&lt;=K$6,ROUNDDOWN(($F72-$E72+1)*$H72,0)+$E72-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>AND(NOT(ISBLANK($E72)),$E72&lt;=K$6,$F72&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16813,15 +16486,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>AND($E73&lt;=K$6,ROUNDDOWN(($F73-$E73+1)*$H73,0)+$E73-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>AND(NOT(ISBLANK($E73)),$E73&lt;=K$6,$F73&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16840,15 +16513,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND($E74&lt;=K$6,ROUNDDOWN(($F74-$E74+1)*$H74,0)+$E74-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(NOT(ISBLANK($E74)),$E74&lt;=K$6,$F74&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18519,7 +18192,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -18551,7 +18224,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -19075,13 +18748,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="44" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="18">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19100,13 +18773,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="41" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19125,13 +18798,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="38" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19150,13 +18823,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19175,13 +18848,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
